--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_97.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2730769230769231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(29.1, 45.98)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.14, 9.88)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3194444444444444</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/5', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.090897, 23.117291)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.525575, 31.142537)]</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_62</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0433083176985616</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7', 'F:7', 'Bb:7'], ['Bb:7', 'Bb:min7', 'Eb:7', 'Ab:maj7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1730769230769231</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj7', 'D:7', 'G:7'], ['G:7', 'G:min7', 'C:7', 'F:maj7', 'D:7']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.88, 10.2), (0.2, 4.64)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.13, 22.15), (17.34, 21.2)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1903846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09738372093023256</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[['D', 'A', 'D']]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[(148.857891, 153.176802)]</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1873873873873874</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(134.84, 137.48), (132.3, 136.56)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.476822, 35.056893), (18.826145, 26.43068)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3909774436090225</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.459543, 6.357029)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.205, 18.764)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.0, 16.38)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(82.5, 90.74)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2635135135135135</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4675324675324675</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['A', 'E', 'B', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.82, 17.23), (14.59, 16.26)]</t>
+          <t>[['F', 'C', 'G', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(212.26, 222.96), (232.44, 245.22)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:10.755440', '0:00:16.305010')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:41.895260', '0:00:57.278480')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(118.18, 123.04), (0.86, 5.14)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(24.52, 54.82)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(120.4, 123.78)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(63.12, 69.42)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(30.8, 45.3)]</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(24.76, 32.42), (13.98, 21.5)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(22.1, 29.56), (42.52, 46.36)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08907563025210083</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(56.36, 59.8)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(48.001, 54.307), (7.702, 13.841)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(251.5, 255.38), (9.24, 12.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
